--- a/data/37-intersection map Solution.xlsx
+++ b/data/37-intersection map Solution.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -615,6 +615,96 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>30</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -627,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -665,10 +755,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -676,10 +766,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -687,10 +777,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -698,10 +788,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -709,10 +799,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -720,10 +810,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -731,12 +821,78 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>30</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B14" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/37-intersection map Solution.xlsx
+++ b/data/37-intersection map Solution.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,8 +488,12 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>14.62744754853469</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.62744754853469</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -503,8 +507,12 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>12.98983927520172</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.98983927520172</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -518,8 +526,12 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>11.50036433520173</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.50036433520173</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -533,8 +545,12 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>15.74583357333469</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.74583357333469</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -548,8 +564,12 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>17.97597518000059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.97597518000059</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -563,12 +583,18 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>10.32004157520189</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.32004157520188</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -578,8 +604,12 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>19.09511678666726</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.09511678666726</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -593,8 +623,12 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>20.36239172666667</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.36239172666667</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -608,8 +642,12 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -623,8 +661,12 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>2.583486024799801</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.583486024799801</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -633,28 +675,38 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.63760827333334</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.557072012836733</v>
+      </c>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>7.28398554186843</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.28398554186843</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -663,13 +715,17 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>7.810593815201713</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.810593815201713</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -678,13 +734,17 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>6.016710601868429</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.016710601868429</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -693,18 +753,43 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>4.456637841868472</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.381332049599802</v>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0.2675619814037415</v>
+      </c>
       <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -717,7 +802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +873,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,10 +884,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -810,10 +895,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -821,10 +906,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -832,10 +917,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -843,10 +928,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -854,10 +939,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -865,10 +950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -876,10 +961,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -893,6 +978,17 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n">
+        <v>38</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/37-intersection map Solution.xlsx
+++ b/data/37-intersection map Solution.xlsx
@@ -489,13 +489,17 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.62744754853469</v>
+        <v>14.62744754853544</v>
       </c>
       <c r="D2" t="n">
-        <v>14.62744754853469</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>14.62744754853544</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.06104239999992</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.06104239999992</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -508,16 +512,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.98983927520172</v>
+        <v>12.9898392752026</v>
       </c>
       <c r="D3" t="n">
-        <v>12.98983927520172</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>12.9898392752026</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.42965795555545</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.67965795555545</v>
+      </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -527,13 +537,17 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.50036433520173</v>
+        <v>11.50036433520343</v>
       </c>
       <c r="D4" t="n">
-        <v>11.50036433520173</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>11.50036433520343</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.01494017777764</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.01494017777764</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -546,13 +560,17 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15.74583357333469</v>
+        <v>15.74583357333486</v>
       </c>
       <c r="D5" t="n">
-        <v>15.74583357333469</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>15.74583357333486</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.907795555555509</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.907795555555509</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -565,16 +583,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>17.97597518000059</v>
+        <v>17.97597518000092</v>
       </c>
       <c r="D6" t="n">
-        <v>17.97597518000059</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>17.97597518000092</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.155846666666633</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.405846666666633</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -584,14 +608,20 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.32004157520189</v>
+        <v>10.32004157520365</v>
       </c>
       <c r="D7" t="n">
-        <v>10.32004157520188</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>10.32004157520362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.09513584444428</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.09513584444428</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -605,16 +635,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>19.09511678666726</v>
+        <v>19.09511678666739</v>
       </c>
       <c r="D8" t="n">
-        <v>19.09511678666726</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>19.09511678666739</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.653897777777775</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.903897777777775</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,13 +660,17 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>20.36239172666667</v>
+        <v>20.36239172666674</v>
       </c>
       <c r="D9" t="n">
-        <v>20.36239172666667</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>20.36239172666674</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.368615555555571</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.368615555555571</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -648,8 +688,12 @@
       <c r="D10" t="n">
         <v>22</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -662,16 +706,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.583486024799801</v>
+        <v>4.106791817070395</v>
       </c>
       <c r="D11" t="n">
-        <v>2.583486024799801</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+        <v>4.106791817070395</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13.11350513333318</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.36350513333318</v>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -681,16 +731,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.1</v>
+        <v>2.623305792270394</v>
       </c>
       <c r="D12" t="n">
-        <v>23.63760827333334</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>23.63760827333332</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13.56675197777762</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.88340325319791</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
       <c r="H12" t="n">
-        <v>3.557072012836733</v>
+        <v>3.316651275420286</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -702,16 +758,22 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7.28398554186843</v>
+        <v>7.283985541870318</v>
       </c>
       <c r="D13" t="n">
-        <v>7.28398554186843</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+        <v>7.283985541870318</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.3814470666665</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.6314470666665</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -721,13 +783,17 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>7.810593815201713</v>
+        <v>7.810593815203626</v>
       </c>
       <c r="D14" t="n">
-        <v>7.810593815201713</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+        <v>7.810593815203626</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.26283151111095</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11.26283151111095</v>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -740,13 +806,17 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6.016710601868429</v>
+        <v>6.016710601870318</v>
       </c>
       <c r="D15" t="n">
-        <v>6.016710601868429</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+        <v>6.016710601870318</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.91672928888872</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11.91672928888872</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -759,16 +829,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4.456637841868472</v>
+        <v>4.456637841870338</v>
       </c>
       <c r="D16" t="n">
-        <v>5.381332049599802</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+        <v>6.904637841870374</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.02192495555539</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12.73025828888873</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
       <c r="H16" t="n">
-        <v>0.2675619814037415</v>
+        <v>0.7083333333333439</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -785,8 +861,12 @@
       <c r="D17" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>17.25201880875347</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.25201880875347</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
